--- a/docs/source/risk_analysis-contingency_plan.xlsx
+++ b/docs/source/risk_analysis-contingency_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\Git\UBICUA\docs\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2116E99D-07DC-4C39-BC33-16E5F5CFC181}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4567205-BA70-4DE6-A96B-897D9914E555}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DCE1344B-68B3-4B33-A066-54E7490DE6E7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Risk</t>
   </si>
@@ -60,19 +60,10 @@
     <t>Production</t>
   </si>
   <si>
-    <t>Develpment</t>
-  </si>
-  <si>
     <t>Contingency Plan</t>
   </si>
   <si>
     <t>Alexa implementation delay</t>
-  </si>
-  <si>
-    <t>Webpage implementation delay</t>
-  </si>
-  <si>
-    <t>Webpage and Alexa implementation delay</t>
   </si>
   <si>
     <t>Security</t>
@@ -121,9 +112,6 @@
     </r>
   </si>
   <si>
-    <t>Impact (0-10)</t>
-  </si>
-  <si>
     <t>Probability (%)</t>
   </si>
   <si>
@@ -170,13 +158,82 @@
   </si>
   <si>
     <t>If the sick leave is for a long period of time, it might be advisable to find for a substitute.</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Many are the reasons that could make a developer in the project resign from his position. This would leave the team without one or more members, therefore delaying the deadline.</t>
+  </si>
+  <si>
+    <t>Give the employees the most comfortable working-ambient: breaks, commodities, etc.</t>
+  </si>
+  <si>
+    <t>The causes for the initial resignation must be looked for.</t>
+  </si>
+  <si>
+    <t>The implementation for the controlling and monitoring system included in Alexa cannot be completed in due time.</t>
+  </si>
+  <si>
+    <t>Impact      (out of 100)</t>
+  </si>
+  <si>
+    <t>Stand-up meeting to update the employee on the state of the project (changes during absence).</t>
+  </si>
+  <si>
+    <t>Reduce unnecessary functionalities to make it to the due date. Simplify the front-end side and leave room for improvements after due date.</t>
+  </si>
+  <si>
+    <t>Start completing the functionalities that were postponed in previous phases of the development. Correct the simplified features in the front end implementation.</t>
+  </si>
+  <si>
+    <t>Focus the development of the webpage so that the device can be controlled with at least one of the user interfaces.</t>
+  </si>
+  <si>
+    <t>Continue the implementation of the Alexa Skill from where it was interrupted.</t>
+  </si>
+  <si>
+    <t>After the resignation has been posted, the negotations between company and employee take place. If the employee is not interested in continuing his work at the company, or the company decides the employee is not worth retaining: a selection process may start. If it is consired necessary, the selection process may start before knowing the outcome of the resignation.</t>
+  </si>
+  <si>
+    <t>Create a realistic development plan, taking into cosideration possible small delays due to minor problems. Weekly stand-up meetings should take place to know the current state of the project compared with the planning.</t>
+  </si>
+  <si>
+    <t>Decalibration, external disruption (leaves fallen over luminosity sensor, move the humidity sensor to a bottle of water, etc.)</t>
+  </si>
+  <si>
+    <t>After all the testing and demonstrations are done, before the device is commercialized, protect the sensors by a carcass.</t>
+  </si>
+  <si>
+    <t>The bluetooth connection that the ESP32 counts with might cause threats to which the system might be exposed. It can be the door to possible attacks.</t>
+  </si>
+  <si>
+    <t>Deactivate the Bluetooth connection and used the Wi-Fi connection instead to interact with the web page and the Alexa service.</t>
+  </si>
+  <si>
+    <t>Web page implementation delay</t>
+  </si>
+  <si>
+    <t>During the web page design some problems occur and it is not possible to finish it in the due date.</t>
+  </si>
+  <si>
+    <t>Postpone the deadline and focus resources in the web page main functionalities and aspect.</t>
+  </si>
+  <si>
+    <t>Correct the minor problems that might have been neglected before the due date (for the web page). The Alexa Skill development may continue where it was left off.</t>
+  </si>
+  <si>
+    <t>Both the Alexa service and the web page cannot be finished in the due date.</t>
+  </si>
+  <si>
+    <t>Web page and Alexa implementation delay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +255,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,20 +299,59 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -258,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,20 +380,56 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,15 +745,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799D53CE-77FC-4EE2-A019-519D8D216ACA}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -625,108 +764,108 @@
     <col min="8" max="8" width="32.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="C1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E2" s="4">
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E3" s="4">
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4">
         <v>100</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -736,105 +875,236 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="16">
+        <v>50</v>
+      </c>
+      <c r="E6" s="16">
+        <v>12</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1">
+      <c r="H6" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="16">
+        <v>60</v>
+      </c>
+      <c r="E7" s="16">
+        <v>10</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="16">
+        <v>70</v>
+      </c>
+      <c r="E8" s="16">
+        <v>33</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="16">
+        <v>65</v>
+      </c>
+      <c r="E9" s="16">
+        <v>40</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="16">
+        <v>95</v>
+      </c>
+      <c r="E10" s="16">
+        <v>14</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21">
+        <v>80</v>
+      </c>
+      <c r="E12" s="21">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="21">
+        <v>30</v>
+      </c>
+      <c r="E13" s="21">
+        <v>30</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="21">
+        <v>80</v>
+      </c>
+      <c r="E14" s="21">
+        <v>4</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21">
+        <v>90</v>
+      </c>
+      <c r="E15" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21">
+        <v>100</v>
+      </c>
+      <c r="E16" s="21">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1">
-        <v>13</v>
-      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/source/risk_analysis-contingency_plan.xlsx
+++ b/docs/source/risk_analysis-contingency_plan.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\Git\UBICUA\docs\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4567205-BA70-4DE6-A96B-897D9914E555}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC12B05-D551-4227-8F82-C4223312F36C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DCE1344B-68B3-4B33-A066-54E7490DE6E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Risks and Contingency Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="Risk Matrix" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
   <si>
     <t>Risk</t>
   </si>
@@ -42,18 +43,6 @@
     <t>Restoration After Emergency State</t>
   </si>
   <si>
-    <t>All electronic components to produce the device are running late, have been lost or stolen</t>
-  </si>
-  <si>
-    <t>Broken machine in assembly line</t>
-  </si>
-  <si>
-    <t>Maintenance in assembly line</t>
-  </si>
-  <si>
-    <t>Developer resigns</t>
-  </si>
-  <si>
     <t xml:space="preserve">Distribution Chain </t>
   </si>
   <si>
@@ -63,186 +52,492 @@
     <t>Contingency Plan</t>
   </si>
   <si>
-    <t>Alexa implementation delay</t>
-  </si>
-  <si>
     <t>Security</t>
   </si>
   <si>
-    <t>Unauthozed access to the hardware</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Sensor perturbation</t>
-  </si>
-  <si>
-    <t>Bluejacking attack (and similar)</t>
-  </si>
-  <si>
-    <t>Interception or extraction of data</t>
-  </si>
-  <si>
-    <t>Network overload</t>
-  </si>
-  <si>
-    <r>
-      <t>Given that the supplier has any type of complication, or the pieces have been stolen, etc. It wouldn't be possible to assemble Ec</t>
+    <t>Probability (%)</t>
+  </si>
+  <si>
+    <t>Use the stockage in the stockhouse. In case there is not stock left, make a new order to the other supplier.</t>
+  </si>
+  <si>
+    <t>Stock extra parts on a storehouse. Have different suppliers for every part in case one of them fails. Change the supplier if the problem persists.</t>
+  </si>
+  <si>
+    <t>Stock extra parts. If the problem has happend more than 2 times, without a compelling reason, a new supplier should be found to provide the stockage.</t>
+  </si>
+  <si>
+    <t>Due to a bad maintenance or by chance, one or more machines in the assembly line are broken. Not allowing the assembly of the device.</t>
+  </si>
+  <si>
+    <t>If it is a fast solucion: wait until the assembly line gets repaired. If it would take too long, go manual until the assembly line gets restored.</t>
+  </si>
+  <si>
+    <t>Make an investigation on what went wrong, an find a solution: maintenance more often, longer breaks, etc.</t>
+  </si>
+  <si>
+    <t>To ensure proper operation in the assembly line, every piece of equipment and machinera goes through a periodical maintenance review.</t>
+  </si>
+  <si>
+    <t>Make the maintenance of the equipment when the production is at its lowest performance, or while the assembly line is not on production.</t>
+  </si>
+  <si>
+    <t>It the maintenance has to take place at the highest production peak, only the machinery is reviewed. In case it is the equipment the one needing the maintenance, it should be taken bit by bit.</t>
+  </si>
+  <si>
+    <t>Maintenance should be scheduled better next review to avoid affecting the production.</t>
+  </si>
+  <si>
+    <t>Might occur that a developer(a) does not attend to his obligation due to sickness, personal issues or other compelling reasons.</t>
+  </si>
+  <si>
+    <t>Perform periodical maintenance on the equipment and the machinery.</t>
+  </si>
+  <si>
+    <t>If the sick leave is for a long period of time, it might be advisable to find for a substitute.</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Many are the reasons that could make a developer in the project resign from his position. This would leave the team without one or more members, therefore delaying the deadline.</t>
+  </si>
+  <si>
+    <t>Give the employees the most comfortable working-ambient: breaks, commodities, etc.</t>
+  </si>
+  <si>
+    <t>The causes for the initial resignation must be looked for.</t>
+  </si>
+  <si>
+    <t>The implementation for the controlling and monitoring system included in Alexa cannot be completed in due time.</t>
+  </si>
+  <si>
+    <t>Impact      (out of 100)</t>
+  </si>
+  <si>
+    <t>Stand-up meeting to update the employee on the state of the project (changes during absence).</t>
+  </si>
+  <si>
+    <t>Reduce unnecessary functionalities to make it to the due date. Simplify the front-end side and leave room for improvements after due date.</t>
+  </si>
+  <si>
+    <t>Start completing the functionalities that were postponed in previous phases of the development. Correct the simplified features in the front end implementation.</t>
+  </si>
+  <si>
+    <t>Focus the development of the webpage so that the device can be controlled with at least one of the user interfaces.</t>
+  </si>
+  <si>
+    <t>Continue the implementation of the Alexa Skill from where it was interrupted.</t>
+  </si>
+  <si>
+    <t>After the resignation has been posted, the negotations between company and employee take place. If the employee is not interested in continuing his work at the company, or the company decides the employee is not worth retaining: a selection process may start. If it is consired necessary, the selection process may start before knowing the outcome of the resignation.</t>
+  </si>
+  <si>
+    <t>After all the testing and demonstrations are done, before the device is commercialized, protect the sensors by a carcass.</t>
+  </si>
+  <si>
+    <t>The bluetooth connection that the ESP32 counts with might cause threats to which the system might be exposed. It can be the door to possible attacks.</t>
+  </si>
+  <si>
+    <t>Deactivate the Bluetooth connection and used the Wi-Fi connection instead to interact with the web page and the Alexa service.</t>
+  </si>
+  <si>
+    <t>During the web page design some problems occur and it is not possible to finish it in the due date.</t>
+  </si>
+  <si>
+    <t>Postpone the deadline and focus resources in the web page main functionalities and aspect.</t>
+  </si>
+  <si>
+    <t>Correct the minor problems that might have been neglected before the due date (for the web page). The Alexa Skill development may continue where it was left off.</t>
+  </si>
+  <si>
+    <t>Both the Alexa service and the web page cannot be finished in the due date.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that the supplier has any type of complication, or the pieces have been stolen, etc. It wouldn't be possible to assemble Ec⌀. </t>
+  </si>
+  <si>
+    <t>Not needed after deactivating the Bluetooth.</t>
+  </si>
+  <si>
+    <t>Through some tools, hackers can access the packages that the devices send to each other to communicate, obtaining some sensitive information.</t>
+  </si>
+  <si>
+    <t>Appropiate room temperatues, air flow, room luminosity, make good use of time so that the stressful delivery periods are shorthen, etc. Take the workplace risk prevention.</t>
+  </si>
+  <si>
+    <t>After all the testing and demonstrations are done, before the device is commercialized, protect the device from any user interaction.</t>
+  </si>
+  <si>
+    <t>If it is known that the device has been manipulated in any way by an unauthorized user, the company can reserve the right to take legal actions against the perpetrator.</t>
+  </si>
+  <si>
+    <t>After the unauthorized manipulation, the company will not take responsability of any reparation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data encryption using AES for the ESP32 incoming/outgoing data. </t>
+  </si>
+  <si>
+    <t>Attackers might find a way of spoofing the identity of the user and perform undesired interactions with the service.</t>
+  </si>
+  <si>
+    <t>Decalibration, external disruption (leaves fallen over luminosity sensor, move the humidity sensor to a bottle of water, etc.).</t>
+  </si>
+  <si>
+    <t>Lock any non-automated action until the user resets all credentials and performs the security checks requested by the Rainforest Security Team. User must be notified of the security breach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use JWT (JSON Web Token - token encoded from data payload using a secret established the server) to authenticate the user and share the information with the server. </t>
+  </si>
+  <si>
+    <t>Lock any communication that contains personal data (such as usernames, credentials, etc.) and use the automated services integrated in the system. The user must be notified of the security breach. The user must reset all credentials and take the steps suggested by the security team.</t>
+  </si>
+  <si>
+    <t>Unlock all the services. Notify the user about the rehabilitation of the services and that the security breach has been solved.</t>
+  </si>
+  <si>
+    <t>Implementation of a well-designed firewall. With that purpose, it would be needed to know the representatives (end-to-end systems involved) and to create filtering rules that do not allow the traffic for any other system but the representatives.</t>
+  </si>
+  <si>
+    <t>The service should be unlocked an notified to the user. The implementation of further security measures should be taken into account.</t>
+  </si>
+  <si>
+    <t>Create a realistic set of project objectives and deliverable items within the provided timeframe.</t>
+  </si>
+  <si>
+    <t>The device can be manipulated by an user or an attacker wanting to know the innards of the device or with malicious intentions.</t>
+  </si>
+  <si>
+    <t>The servers or headquarters might suffer a hacking intent.</t>
+  </si>
+  <si>
+    <t>Use JWT (JSON Web Token - token encoded from data payload using a secret established the server) to authenticate the user and share the information with the server. Implementation of a well-designed firewall. With that purpose, it would be needed to know the representatives (end-to-end systems involved) and to create filtering rules that do not allow the traffic for any other system but the representatives. The corporative email can only be used for communications within the company.</t>
+  </si>
+  <si>
+    <t>The security team from Rainforest take the necessary measures given the circunstances.</t>
+  </si>
+  <si>
+    <t>If the device perceives what would be considered to be unexpected readings, the user should be notified to take the appropiate measures (clean the sensor, substitute it, etc.).</t>
+  </si>
+  <si>
+    <t>The user should be asked about the reason for the readings and add the cause to the database so that the system is able to predict future perturbations.</t>
+  </si>
+  <si>
+    <t>The Rainforest's Security Department should investigate the cause of the attack andstudy measures to avoid future penetrations attempts.</t>
+  </si>
+  <si>
+    <t>The device can suffer a DoS attack or too many requests to at the same time, which could cause an overload on the network an cease the functioning of the system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock any type of communication and use the automated services integrated in the system. </t>
+  </si>
+  <si>
+    <t>Once the attack has ceased, the Security Department should be automatically notified so that the firewall can be updated. Further measures could be taking into consideration if necessary.</t>
+  </si>
+  <si>
+    <t>The main server, hosted by AWS might be attacked by a DoS attack or have too many requests and therefore overload the network and cease the functioning of the system.</t>
+  </si>
+  <si>
+    <t>As the service is provided by a third party, that third party should be the one taking care of the security breach.</t>
+  </si>
+  <si>
+    <t>Besides the measures taken by AWS, Rainforesy might suggest changing the server hosting if the problem persists.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All electronic components to produce the device are running late, have been lost or stolen </t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⌀</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <t>Probability (%)</t>
-  </si>
-  <si>
-    <t>Use the stockage in the stockhouse. In case there is not stock left, make a new order to the other supplier.</t>
-  </si>
-  <si>
-    <t>Stock extra parts on a storehouse. Have different suppliers for every part in case one of them fails. Change the supplier if the problem persists.</t>
-  </si>
-  <si>
-    <t>Stock extra parts. If the problem has happend more than 2 times, without a compelling reason, a new supplier should be found to provide the stockage.</t>
-  </si>
-  <si>
-    <t>Due to a bad maintenance or by chance, one or more machines in the assembly line are broken. Not allowing the assembly of the device.</t>
-  </si>
-  <si>
-    <t>If it is a fast solucion: wait until the assembly line gets repaired. If it would take too long, go manual until the assembly line gets restored.</t>
-  </si>
-  <si>
-    <t>Make an investigation on what went wrong, an find a solution: maintenance more often, longer breaks, etc.</t>
-  </si>
-  <si>
-    <t>To ensure proper operation in the assembly line, every piece of equipment and machinera goes through a periodical maintenance review.</t>
-  </si>
-  <si>
-    <t>Make the maintenance of the equipment when the production is at its lowest performance, or while the assembly line is not on production.</t>
-  </si>
-  <si>
-    <t>It the maintenance has to take place at the highest production peak, only the machinery is reviewed. In case it is the equipment the one needing the maintenance, it should be taken bit by bit.</t>
-  </si>
-  <si>
-    <t>Maintenance should be scheduled better next review to avoid affecting the production.</t>
-  </si>
-  <si>
-    <t>Might occur that a developer(a) does not attend to his obligation due to sickness, personal issues or other compelling reasons.</t>
-  </si>
-  <si>
-    <t>Developers asking for sick leave.</t>
-  </si>
-  <si>
-    <t>Perform periodical maintenance on the equipment and the machinery.</t>
-  </si>
-  <si>
-    <t>Appropiate room temperatues, air flow, room luminosity, make good use of time so that the stressful delivery periods are shorthen, etc.</t>
-  </si>
-  <si>
-    <t>If the sick leave is for a long period of time, it might be advisable to find for a substitute.</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>Many are the reasons that could make a developer in the project resign from his position. This would leave the team without one or more members, therefore delaying the deadline.</t>
-  </si>
-  <si>
-    <t>Give the employees the most comfortable working-ambient: breaks, commodities, etc.</t>
-  </si>
-  <si>
-    <t>The causes for the initial resignation must be looked for.</t>
-  </si>
-  <si>
-    <t>The implementation for the controlling and monitoring system included in Alexa cannot be completed in due time.</t>
-  </si>
-  <si>
-    <t>Impact      (out of 100)</t>
-  </si>
-  <si>
-    <t>Stand-up meeting to update the employee on the state of the project (changes during absence).</t>
-  </si>
-  <si>
-    <t>Reduce unnecessary functionalities to make it to the due date. Simplify the front-end side and leave room for improvements after due date.</t>
-  </si>
-  <si>
-    <t>Start completing the functionalities that were postponed in previous phases of the development. Correct the simplified features in the front end implementation.</t>
-  </si>
-  <si>
-    <t>Focus the development of the webpage so that the device can be controlled with at least one of the user interfaces.</t>
-  </si>
-  <si>
-    <t>Continue the implementation of the Alexa Skill from where it was interrupted.</t>
-  </si>
-  <si>
-    <t>After the resignation has been posted, the negotations between company and employee take place. If the employee is not interested in continuing his work at the company, or the company decides the employee is not worth retaining: a selection process may start. If it is consired necessary, the selection process may start before knowing the outcome of the resignation.</t>
-  </si>
-  <si>
-    <t>Create a realistic development plan, taking into cosideration possible small delays due to minor problems. Weekly stand-up meetings should take place to know the current state of the project compared with the planning.</t>
-  </si>
-  <si>
-    <t>Decalibration, external disruption (leaves fallen over luminosity sensor, move the humidity sensor to a bottle of water, etc.)</t>
-  </si>
-  <si>
-    <t>After all the testing and demonstrations are done, before the device is commercialized, protect the sensors by a carcass.</t>
-  </si>
-  <si>
-    <t>The bluetooth connection that the ESP32 counts with might cause threats to which the system might be exposed. It can be the door to possible attacks.</t>
-  </si>
-  <si>
-    <t>Deactivate the Bluetooth connection and used the Wi-Fi connection instead to interact with the web page and the Alexa service.</t>
-  </si>
-  <si>
-    <t>Web page implementation delay</t>
-  </si>
-  <si>
-    <t>During the web page design some problems occur and it is not possible to finish it in the due date.</t>
-  </si>
-  <si>
-    <t>Postpone the deadline and focus resources in the web page main functionalities and aspect.</t>
-  </si>
-  <si>
-    <t>Correct the minor problems that might have been neglected before the due date (for the web page). The Alexa Skill development may continue where it was left off.</t>
-  </si>
-  <si>
-    <t>Both the Alexa service and the web page cannot be finished in the due date.</t>
-  </si>
-  <si>
-    <t>Web page and Alexa implementation delay</t>
+      <t>[p.1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Broken machine in assembly line </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[p.2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maintenance in assembly line </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[p.3]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Developers asking for sick leave  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[d.1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Developer resigns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[d.2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web page implementation delay </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[d.3]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alexa implementation delay </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[d.4]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web page and Alexa implementation delay </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[d.5]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unauthorized access to the hardware </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[s.1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unauthorized access to the web page/Alexa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[s.2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unauthorized access to the infrastructure of the company </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[s.3]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sensor perturbation </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[s.4]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bluejacking attack (and similar) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[s.5]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interception or extraction of data </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[s.6]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Device Network Overload </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[s.7]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Main Server Network Overload </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[s.8]</t>
+    </r>
+  </si>
+  <si>
+    <t>Very Unlikely [1-20]</t>
+  </si>
+  <si>
+    <t>Unlikely [21-40]</t>
+  </si>
+  <si>
+    <t>Possible [41-60]</t>
+  </si>
+  <si>
+    <t>Likely [61-80]</t>
+  </si>
+  <si>
+    <t>Very Likely [81-100]</t>
+  </si>
+  <si>
+    <t>Negligible [1- 20]</t>
+  </si>
+  <si>
+    <t>Minor [21-40]</t>
+  </si>
+  <si>
+    <t>Moderate [41-60]</t>
+  </si>
+  <si>
+    <t>Significant [61-80]</t>
+  </si>
+  <si>
+    <t>Severe [81-100]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -261,8 +556,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +665,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -356,13 +692,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -371,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -380,34 +745,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -416,13 +763,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -431,12 +775,74 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC3300"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -745,16 +1151,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799D53CE-77FC-4EE2-A019-519D8D216ACA}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -764,65 +1170,65 @@
     <col min="8" max="8" width="32.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="27">
+        <v>100</v>
+      </c>
+      <c r="E2" s="27">
+        <v>20</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4">
-        <v>100</v>
-      </c>
-      <c r="E2" s="4">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
+      <c r="H2" s="28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4">
         <v>100</v>
@@ -831,22 +1237,22 @@
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4">
         <v>10</v>
@@ -855,17 +1261,17 @@
         <v>100</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -874,240 +1280,430 @@
       <c r="G5" s="6"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="10">
+        <v>60</v>
+      </c>
+      <c r="E7" s="10">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="10">
+        <v>70</v>
+      </c>
+      <c r="E8" s="10">
+        <v>33</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10">
+        <v>65</v>
+      </c>
+      <c r="E9" s="10">
+        <v>40</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="10">
+        <v>95</v>
+      </c>
+      <c r="E10" s="10">
+        <v>14</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="14">
+        <v>80</v>
+      </c>
+      <c r="E12" s="14">
+        <v>5</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="14">
+        <v>100</v>
+      </c>
+      <c r="E13" s="14">
+        <v>48</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="14">
+        <v>100</v>
+      </c>
+      <c r="E14" s="14">
+        <v>76</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="14">
+        <v>30</v>
+      </c>
+      <c r="E15" s="14">
+        <v>30</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="16">
-        <v>50</v>
-      </c>
-      <c r="E6" s="16">
-        <v>12</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+      <c r="D16" s="14">
+        <v>80</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="14">
+        <v>90</v>
+      </c>
+      <c r="E17" s="14">
         <v>6</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16">
-        <v>60</v>
-      </c>
-      <c r="E7" s="16">
-        <v>10</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="F17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="16">
+      <c r="H17" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="17">
+        <v>100</v>
+      </c>
+      <c r="E18" s="17">
+        <v>13</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="17">
+        <v>100</v>
+      </c>
+      <c r="E19" s="17">
+        <v>35</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="16">
-        <v>33</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="16">
-        <v>65</v>
-      </c>
-      <c r="E9" s="16">
-        <v>40</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="16">
-        <v>95</v>
-      </c>
-      <c r="E10" s="16">
-        <v>14</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21">
-        <v>80</v>
-      </c>
-      <c r="E12" s="21">
-        <v>5</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="21">
-        <v>30</v>
-      </c>
-      <c r="E13" s="21">
-        <v>30</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="21">
-        <v>80</v>
-      </c>
-      <c r="E14" s="21">
-        <v>4</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21">
-        <v>90</v>
-      </c>
-      <c r="E15" s="21">
-        <v>6</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21">
-        <v>100</v>
-      </c>
-      <c r="E16" s="21">
-        <v>13</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0395F0-363C-4A34-9A08-09CA66756F63}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/source/risk_analysis-contingency_plan.xlsx
+++ b/docs/source/risk_analysis-contingency_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\Git\UBICUA\docs\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC12B05-D551-4227-8F82-C4223312F36C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2488A898-ED97-4A8B-96BC-0EA43F45A7FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DCE1344B-68B3-4B33-A066-54E7490DE6E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{DCE1344B-68B3-4B33-A066-54E7490DE6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Risks and Contingency Plan" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="126">
   <si>
     <t>Risk</t>
   </si>
@@ -329,51 +329,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Web page implementation delay </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[d.3]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alexa implementation delay </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[d.4]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Web page and Alexa implementation delay </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[d.5]</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Unauthorized access to the hardware </t>
     </r>
     <r>
@@ -501,34 +456,199 @@
     </r>
   </si>
   <si>
-    <t>Very Unlikely [1-20]</t>
-  </si>
-  <si>
-    <t>Unlikely [21-40]</t>
-  </si>
-  <si>
-    <t>Possible [41-60]</t>
-  </si>
-  <si>
-    <t>Likely [61-80]</t>
-  </si>
-  <si>
-    <t>Very Likely [81-100]</t>
-  </si>
-  <si>
-    <t>Negligible [1- 20]</t>
-  </si>
-  <si>
-    <t>Minor [21-40]</t>
-  </si>
-  <si>
-    <t>Moderate [41-60]</t>
-  </si>
-  <si>
-    <t>Significant [61-80]</t>
-  </si>
-  <si>
-    <t>Severe [81-100]</t>
+    <t xml:space="preserve">Negligible </t>
+  </si>
+  <si>
+    <t>[1- 20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minor </t>
+  </si>
+  <si>
+    <t>[21-40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate </t>
+  </si>
+  <si>
+    <t>[41-60]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significant </t>
+  </si>
+  <si>
+    <t>[61-80]</t>
+  </si>
+  <si>
+    <t>Severe</t>
+  </si>
+  <si>
+    <t>[81-100]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Likely </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likely </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlikely </t>
+  </si>
+  <si>
+    <t>Very Unlikely</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1-20]</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web page implementation delay (delay &gt; 2 days) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[d.3.2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web page implementation delay (delay &lt; 2 days) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[d.3.1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alexa implementation delay (delay &lt; 2 days) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[d.4.1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alexa implementation delay (delay &gt; 2 days) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[d.4.2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web page and Alexa implementation delay (delay &gt; 2 days) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[d.5.2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web page and Alexa implementation delay (delay &lt; 2 days) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[d.5.1]</t>
+    </r>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3.1</t>
+  </si>
+  <si>
+    <t>d3.2</t>
+  </si>
+  <si>
+    <t>d4.1</t>
+  </si>
+  <si>
+    <t>d4.2</t>
+  </si>
+  <si>
+    <t>d5.1</t>
+  </si>
+  <si>
+    <t>d5.2</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>s8</t>
   </si>
 </sst>
 </file>
@@ -684,7 +804,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -721,11 +841,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -781,7 +963,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -824,13 +1005,47 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,11 +1366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799D53CE-77FC-4EE2-A019-519D8D216ACA}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:E2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -1171,59 +1386,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>100</v>
       </c>
-      <c r="E2" s="27">
-        <v>20</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="26">
+        <v>21</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="3" t="s">
         <v>73</v>
       </c>
@@ -1247,7 +1462,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="3" t="s">
         <v>74</v>
       </c>
@@ -1271,7 +1486,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -1281,7 +1496,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1291,7 +1506,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="10">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E6" s="10">
         <v>12</v>
@@ -1307,7 +1522,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="9" t="s">
         <v>76</v>
       </c>
@@ -1331,18 +1546,18 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="9" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="10">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E8" s="10">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>57</v>
@@ -1354,267 +1569,339 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="39"/>
       <c r="B9" s="9" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="10">
-        <v>65</v>
-      </c>
-      <c r="E9" s="10">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="D9" s="40">
+        <v>100</v>
+      </c>
+      <c r="E9" s="40">
+        <v>33</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
       <c r="B10" s="9" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D10" s="10">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="E10" s="10">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>57</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="40">
+        <v>100</v>
+      </c>
+      <c r="E11" s="40">
         <v>38</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="F11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="10">
+        <v>75</v>
+      </c>
+      <c r="E12" s="10">
+        <v>23</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="10">
+        <v>100</v>
+      </c>
+      <c r="E13" s="10">
+        <v>13</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="14">
         <v>80</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="14">
+      <c r="E15" s="14">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="14">
+        <v>100</v>
+      </c>
+      <c r="E16" s="14">
+        <v>48</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="14">
+        <v>100</v>
+      </c>
+      <c r="E17" s="14">
+        <v>76</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="14">
-        <v>5</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="13" t="s">
+      <c r="C18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="14">
+        <v>30</v>
+      </c>
+      <c r="E18" s="14">
+        <v>30</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="C19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="14">
+        <v>80</v>
+      </c>
+      <c r="E19" s="14">
+        <v>4</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="14">
+        <v>90</v>
+      </c>
+      <c r="E20" s="14">
+        <v>6</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="17">
         <v>100</v>
       </c>
-      <c r="E13" s="14">
-        <v>48</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="E21" s="17">
+        <v>13</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="17">
         <v>100</v>
       </c>
-      <c r="E14" s="14">
-        <v>76</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="14">
-        <v>30</v>
-      </c>
-      <c r="E15" s="14">
-        <v>30</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="E22" s="17">
         <v>35</v>
       </c>
-      <c r="D16" s="14">
-        <v>80</v>
-      </c>
-      <c r="E16" s="14">
-        <v>4</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="14">
-        <v>90</v>
-      </c>
-      <c r="E17" s="14">
-        <v>6</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="17">
-        <v>100</v>
-      </c>
-      <c r="E18" s="17">
-        <v>13</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="17">
-        <v>100</v>
-      </c>
-      <c r="E19" s="17">
-        <v>35</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="F22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G22" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H22" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="15"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1624,86 +1911,245 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0395F0-363C-4A34-9A08-09CA66756F63}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:12" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35"/>
+      <c r="B1" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="K1" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="40" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="B2" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="46"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="54"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="43"/>
+      <c r="H10" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="41"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J13" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>